--- a/Reports/04-02-15/Crippled.xlsx
+++ b/Reports/04-02-15/Crippled.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="26">
   <si>
     <t>ORIGINAL</t>
   </si>
@@ -90,9 +90,6 @@
   </si>
   <si>
     <t>Rank 3</t>
-  </si>
-  <si>
-    <t> </t>
   </si>
   <si>
     <t>Rank 4</t>
@@ -110,6 +107,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -131,6 +129,7 @@
       <color rgb="FF800000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -213,8 +212,8 @@
   </sheetPr>
   <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A33" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J44" activeCellId="0" sqref="J44"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H63" activeCellId="0" sqref="H63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1449,10 +1448,10 @@
         <v>1</v>
       </c>
       <c r="G63" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H63" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1543,11 +1542,8 @@
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="s">
+      <c r="B67" s="0" t="s">
         <v>25</v>
-      </c>
-      <c r="B67" s="0" t="s">
-        <v>26</v>
       </c>
       <c r="C67" s="2" t="n">
         <f aca="false">COUNTIF(C2:C60,4)</f>
